--- a/02_output/13_regenerative_score_tests/overview_stat_all_variables.xlsx
+++ b/02_output/13_regenerative_score_tests/overview_stat_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/13_regenerative_score_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AFEA933D0029EBC0008721FA5F3D01F4F2DB14C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DCBDED7-2178-49EB-9764-B9C02F6186E1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_AFEA933D0029EBC0008721FA5F3D01F4F2DB14C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{228DB175-D635-4144-8364-2F89D1ADCE18}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1233,7 +1233,7 @@
         <v>6.0708517559308799</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>17.835005250246013</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>93.188757165252397</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>10.120668994919612</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0.77548825016488199</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.868130183396842</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0.98329685105227604</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0.59756799395884197</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1897,8 +1897,8 @@
   <autoFilter ref="A1:G59" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="microbial_c"/>
-        <filter val="microbial_n"/>
+        <filter val="phi_total"/>
+        <filter val="phi_total_no_yield"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/02_output/13_regenerative_score_tests/overview_stat_all_variables.xlsx
+++ b/02_output/13_regenerative_score_tests/overview_stat_all_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/13_regenerative_score_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_AFEA933D0029EBC0008721FA5F3D01F4F2DB14C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{228DB175-D635-4144-8364-2F89D1ADCE18}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_AFEA933D0029EBC0008721FA5F3D01F4F2DB14C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D3A723-9605-4621-8EA7-0A6C4837F236}"/>
   <bookViews>
-    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -868,7 +868,7 @@
         <v>2.90804971477798</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -891,7 +891,7 @@
         <v>3.39334186227692</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.53878306878306992</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0.93245813696744795</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -971,8 +971,12 @@
         <f>-LOG10(D20)</f>
         <v>5.0178060714258326</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K20">
+        <f>-LOG10(D20)</f>
+        <v>5.0178060714258326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1002,8 +1006,16 @@
         <f>-LOG10(D21)</f>
         <v>5.4581274839590206</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K21">
+        <f>-LOG10(D21)</f>
+        <v>5.4581274839590206</v>
+      </c>
+      <c r="L21">
+        <f>K21-K20</f>
+        <v>0.44032141253318802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>4.59287471895012</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>4.4653296327180403</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>50.0237684440295</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>31.6351000473827</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>2.67846379363576</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>1.43389532991456</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>0.106593648929489</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>0.110773431798177</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>3.6584167507516501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>6.0708517559308799</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>0.77548825016488199</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>0.868130183396842</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>0.98329685105227604</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>0.59756799395884197</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1897,8 +1909,7 @@
   <autoFilter ref="A1:G59" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="phi_total"/>
-        <filter val="phi_total_no_yield"/>
+        <filter val="hplus_conc_mol_l"/>
       </filters>
     </filterColumn>
   </autoFilter>
